--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.352362000000001</v>
+        <v>8.46387</v>
       </c>
       <c r="H2">
-        <v>28.057086</v>
+        <v>25.39161</v>
       </c>
       <c r="I2">
-        <v>0.3814309586590714</v>
+        <v>0.3683986519988784</v>
       </c>
       <c r="J2">
-        <v>0.3814309586590714</v>
+        <v>0.3683986519988785</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.899038333333333</v>
+        <v>1.419902</v>
       </c>
       <c r="N2">
-        <v>5.697115</v>
+        <v>4.259706</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>17.76049394521</v>
+        <v>12.01786594074</v>
       </c>
       <c r="R2">
-        <v>159.84444550689</v>
+        <v>108.16079346666</v>
       </c>
       <c r="S2">
-        <v>0.3814309586590714</v>
+        <v>0.3683986519988784</v>
       </c>
       <c r="T2">
-        <v>0.3814309586590714</v>
+        <v>0.3683986519988785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>26.297245</v>
       </c>
       <c r="I3">
-        <v>0.3575062417544884</v>
+        <v>0.3815382171230672</v>
       </c>
       <c r="J3">
-        <v>0.3575062417544884</v>
+        <v>0.3815382171230673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.899038333333333</v>
+        <v>1.419902</v>
       </c>
       <c r="N3">
-        <v>5.697115</v>
+        <v>4.259706</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>16.64649210535278</v>
+        <v>12.44650358999666</v>
       </c>
       <c r="R3">
-        <v>149.818428948175</v>
+        <v>112.01853230997</v>
       </c>
       <c r="S3">
-        <v>0.3575062417544884</v>
+        <v>0.3815382171230672</v>
       </c>
       <c r="T3">
-        <v>0.3575062417544884</v>
+        <v>0.3815382171230673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.069041666666667</v>
+        <v>3.186597333333334</v>
       </c>
       <c r="H4">
-        <v>9.207125</v>
+        <v>9.559792000000002</v>
       </c>
       <c r="I4">
-        <v>0.1251691824034721</v>
+        <v>0.138699928290867</v>
       </c>
       <c r="J4">
-        <v>0.1251691824034721</v>
+        <v>0.1386999282908671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.899038333333333</v>
+        <v>1.419902</v>
       </c>
       <c r="N4">
-        <v>5.697115</v>
+        <v>4.259706</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>5.828227771597223</v>
+        <v>4.524655926794667</v>
       </c>
       <c r="R4">
-        <v>52.454049944375</v>
+        <v>40.721903341152</v>
       </c>
       <c r="S4">
-        <v>0.1251691824034721</v>
+        <v>0.138699928290867</v>
       </c>
       <c r="T4">
-        <v>0.1251691824034721</v>
+        <v>0.1386999282908671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.331995666666666</v>
+        <v>2.558542666666666</v>
       </c>
       <c r="H5">
-        <v>9.995987</v>
+        <v>7.675628</v>
       </c>
       <c r="I5">
-        <v>0.1358936171829681</v>
+        <v>0.1113632025871871</v>
       </c>
       <c r="J5">
-        <v>0.1358936171829681</v>
+        <v>0.1113632025871872</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.899038333333333</v>
+        <v>1.419902</v>
       </c>
       <c r="N5">
-        <v>5.697115</v>
+        <v>4.259706</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>6.327587497500555</v>
+        <v>3.632879849485332</v>
       </c>
       <c r="R5">
-        <v>56.948287477505</v>
+        <v>32.695918645368</v>
       </c>
       <c r="S5">
-        <v>0.1358936171829681</v>
+        <v>0.1113632025871871</v>
       </c>
       <c r="T5">
-        <v>0.1358936171829681</v>
+        <v>0.1113632025871872</v>
       </c>
     </row>
   </sheetData>
